--- a/hw_optimizing/record_english.xlsx
+++ b/hw_optimizing/record_english.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Course\algo trading\project\MATH585_final_project\hw_optimizing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98630A17-211E-46FC-9301-D353504240F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D6CBA5-0343-4504-B4F9-C2F1B11AEED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="40">
   <si>
     <t>GLDGDX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -523,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1644,6 +1644,50 @@
         <v>10</v>
       </c>
     </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0.161</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.18090000000000001</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="4">
+        <v>120</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hw_optimizing/record_english.xlsx
+++ b/hw_optimizing/record_english.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Course\algo trading\project\MATH585_final_project\hw_optimizing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D6CBA5-0343-4504-B4F9-C2F1B11AEED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D634395-FC73-4D99-963D-773CB2474EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,7 +526,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1649,7 +1649,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>14</v>

--- a/hw_optimizing/record_english.xlsx
+++ b/hw_optimizing/record_english.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Course\algo trading\project\MATH585_final_project\hw_optimizing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D634395-FC73-4D99-963D-773CB2474EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3936188-580B-4D51-BAC3-15559C877A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,7 +526,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -539,7 +539,8 @@
     <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.25" customWidth="1"/>
-    <col min="10" max="12" width="23" customWidth="1"/>
+    <col min="10" max="11" width="23" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
     <col min="13" max="13" width="19.625" customWidth="1"/>
     <col min="14" max="14" width="20.375" customWidth="1"/>
   </cols>
@@ -588,7 +589,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -614,7 +615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -637,7 +638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -663,7 +664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -686,7 +687,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -721,7 +723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -753,7 +755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -785,7 +787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -817,7 +819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -849,7 +851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -881,7 +883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
@@ -915,7 +917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
@@ -949,7 +951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -981,7 +983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1017,7 +1019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1049,7 +1051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1084,7 +1086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1119,7 +1121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>35</v>
       </c>
@@ -1157,7 +1159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>35</v>
       </c>
@@ -1197,7 +1199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
